--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H2">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I2">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J2">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>363.1009685226519</v>
+        <v>548.3671443771641</v>
       </c>
       <c r="R2">
-        <v>363.1009685226519</v>
+        <v>4935.304299394477</v>
       </c>
       <c r="S2">
-        <v>0.0134963769342331</v>
+        <v>0.01706477125186208</v>
       </c>
       <c r="T2">
-        <v>0.0134963769342331</v>
+        <v>0.01706477125186208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H3">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I3">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J3">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>56.39702849605524</v>
+        <v>69.470190928427</v>
       </c>
       <c r="R3">
-        <v>56.39702849605524</v>
+        <v>625.231718355843</v>
       </c>
       <c r="S3">
-        <v>0.00209626418142138</v>
+        <v>0.002161859858258421</v>
       </c>
       <c r="T3">
-        <v>0.00209626418142138</v>
+        <v>0.002161859858258421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H4">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I4">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J4">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>118.0176202688293</v>
+        <v>172.190626289024</v>
       </c>
       <c r="R4">
-        <v>118.0176202688293</v>
+        <v>1549.715636601216</v>
       </c>
       <c r="S4">
-        <v>0.004386686971698184</v>
+        <v>0.005358442203306134</v>
       </c>
       <c r="T4">
-        <v>0.004386686971698184</v>
+        <v>0.005358442203306134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H5">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I5">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J5">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>154.1615179087393</v>
+        <v>193.74077265129</v>
       </c>
       <c r="R5">
-        <v>154.1615179087393</v>
+        <v>1743.66695386161</v>
       </c>
       <c r="S5">
-        <v>0.005730147079792416</v>
+        <v>0.006029066477366</v>
       </c>
       <c r="T5">
-        <v>0.005730147079792416</v>
+        <v>0.006029066477366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H6">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I6">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J6">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>262.4629744244238</v>
+        <v>346.6686165988841</v>
       </c>
       <c r="R6">
-        <v>262.4629744244238</v>
+        <v>3120.017549389956</v>
       </c>
       <c r="S6">
-        <v>0.009755686547806666</v>
+        <v>0.01078806544687981</v>
       </c>
       <c r="T6">
-        <v>0.009755686547806666</v>
+        <v>0.01078806544687981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H7">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I7">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J7">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>275.869561904599</v>
+        <v>399.24732110758</v>
       </c>
       <c r="R7">
-        <v>275.869561904599</v>
+        <v>3593.22588996822</v>
       </c>
       <c r="S7">
-        <v>0.01025400622668388</v>
+        <v>0.01242427500895931</v>
       </c>
       <c r="T7">
-        <v>0.01025400622668388</v>
+        <v>0.01242427500895931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H8">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I8">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J8">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>815.4678618702369</v>
+        <v>1006.303110188068</v>
       </c>
       <c r="R8">
-        <v>815.4678618702369</v>
+        <v>9056.727991692615</v>
       </c>
       <c r="S8">
-        <v>0.0303107471355237</v>
+        <v>0.0313153925458118</v>
       </c>
       <c r="T8">
-        <v>0.0303107471355237</v>
+        <v>0.0313153925458118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H9">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I9">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J9">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>126.6588861787735</v>
+        <v>127.484058652049</v>
       </c>
       <c r="R9">
-        <v>126.6588861787735</v>
+        <v>1147.356527868441</v>
       </c>
       <c r="S9">
-        <v>0.004707880777333185</v>
+        <v>0.003967207593421931</v>
       </c>
       <c r="T9">
-        <v>0.004707880777333185</v>
+        <v>0.003967207593421931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H10">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I10">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J10">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>265.0490767215674</v>
+        <v>315.985311221888</v>
       </c>
       <c r="R10">
-        <v>265.0490767215674</v>
+        <v>2843.867800996992</v>
       </c>
       <c r="S10">
-        <v>0.009851811357208154</v>
+        <v>0.009833224164212924</v>
       </c>
       <c r="T10">
-        <v>0.009851811357208154</v>
+        <v>0.009833224164212924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H11">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I11">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J11">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>346.222605528157</v>
+        <v>355.5317711652301</v>
       </c>
       <c r="R11">
-        <v>346.222605528157</v>
+        <v>3199.785940487071</v>
       </c>
       <c r="S11">
-        <v>0.01286901218240291</v>
+        <v>0.01106388012103644</v>
       </c>
       <c r="T11">
-        <v>0.01286901218240291</v>
+        <v>0.01106388012103644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H12">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I12">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J12">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>589.4507013980475</v>
+        <v>636.1681414817082</v>
       </c>
       <c r="R12">
-        <v>589.4507013980475</v>
+        <v>5725.513273335373</v>
       </c>
       <c r="S12">
-        <v>0.0219097428535772</v>
+        <v>0.01979707194973892</v>
       </c>
       <c r="T12">
-        <v>0.0219097428535772</v>
+        <v>0.01979707194973891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H13">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I13">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J13">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>619.5597954936001</v>
+        <v>732.6548008654601</v>
       </c>
       <c r="R13">
-        <v>619.5597954936001</v>
+        <v>6593.89320778914</v>
       </c>
       <c r="S13">
-        <v>0.02302889074435601</v>
+        <v>0.02279966389588875</v>
       </c>
       <c r="T13">
-        <v>0.02302889074435601</v>
+        <v>0.02279966389588875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H14">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I14">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J14">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>1809.504407742914</v>
+        <v>2481.629915030544</v>
       </c>
       <c r="R14">
-        <v>1809.504407742914</v>
+        <v>22334.6692352749</v>
       </c>
       <c r="S14">
-        <v>0.06725884992931672</v>
+        <v>0.07722644813061073</v>
       </c>
       <c r="T14">
-        <v>0.06725884992931672</v>
+        <v>0.07722644813061072</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H15">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I15">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J15">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>281.05315186139</v>
+        <v>314.3866400068139</v>
       </c>
       <c r="R15">
-        <v>281.05315186139</v>
+        <v>2829.479760061325</v>
       </c>
       <c r="S15">
-        <v>0.01044667903671246</v>
+        <v>0.009783474723766119</v>
       </c>
       <c r="T15">
-        <v>0.01044667903671246</v>
+        <v>0.009783474723766119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H16">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I16">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J16">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>588.1377979702461</v>
+        <v>779.2469218264888</v>
       </c>
       <c r="R16">
-        <v>588.1377979702461</v>
+        <v>7013.2222964384</v>
       </c>
       <c r="S16">
-        <v>0.02186094254436307</v>
+        <v>0.02424957550071712</v>
       </c>
       <c r="T16">
-        <v>0.02186094254436307</v>
+        <v>0.02424957550071712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H17">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I17">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J17">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>768.2599892123375</v>
+        <v>876.7718892397501</v>
       </c>
       <c r="R17">
-        <v>768.2599892123375</v>
+        <v>7890.94700315775</v>
       </c>
       <c r="S17">
-        <v>0.0285560416985027</v>
+        <v>0.02728447880832293</v>
       </c>
       <c r="T17">
-        <v>0.0285560416985027</v>
+        <v>0.02728447880832292</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H18">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I18">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J18">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>1307.977533143601</v>
+        <v>1568.845286183544</v>
       </c>
       <c r="R18">
-        <v>1307.977533143601</v>
+        <v>14119.6075756519</v>
       </c>
       <c r="S18">
-        <v>0.04861721487728044</v>
+        <v>0.04882128007266362</v>
       </c>
       <c r="T18">
-        <v>0.04861721487728044</v>
+        <v>0.04882128007266361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H19">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I19">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J19">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N19">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q19">
-        <v>1374.788919620678</v>
+        <v>1806.789676798944</v>
       </c>
       <c r="R19">
-        <v>1374.788919620678</v>
+        <v>16261.1070911905</v>
       </c>
       <c r="S19">
-        <v>0.05110057827634311</v>
+        <v>0.05622592974606336</v>
       </c>
       <c r="T19">
-        <v>0.05110057827634311</v>
+        <v>0.05622592974606335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H20">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I20">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J20">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N20">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O20">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P20">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q20">
-        <v>2431.965899080122</v>
+        <v>2992.726428422814</v>
       </c>
       <c r="R20">
-        <v>2431.965899080122</v>
+        <v>26934.53785580533</v>
       </c>
       <c r="S20">
-        <v>0.09039559602039123</v>
+        <v>0.09313138550348983</v>
       </c>
       <c r="T20">
-        <v>0.09039559602039123</v>
+        <v>0.09313138550348982</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H21">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I21">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J21">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N21">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q21">
-        <v>377.7341896660346</v>
+        <v>379.1351807104004</v>
       </c>
       <c r="R21">
-        <v>377.7341896660346</v>
+        <v>3412.216626393603</v>
       </c>
       <c r="S21">
-        <v>0.014040290295623</v>
+        <v>0.01179840039414623</v>
       </c>
       <c r="T21">
-        <v>0.014040290295623</v>
+        <v>0.01179840039414623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H22">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I22">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J22">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N22">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q22">
-        <v>790.4545921542335</v>
+        <v>939.7343427771162</v>
       </c>
       <c r="R22">
-        <v>790.4545921542335</v>
+        <v>8457.609084994046</v>
       </c>
       <c r="S22">
-        <v>0.02938100982907044</v>
+        <v>0.02924382279544583</v>
       </c>
       <c r="T22">
-        <v>0.02938100982907044</v>
+        <v>0.02924382279544583</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H23">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I23">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J23">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N23">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q23">
-        <v>1032.538018364152</v>
+        <v>1057.34476713612</v>
       </c>
       <c r="R23">
-        <v>1032.538018364152</v>
+        <v>9516.102904225079</v>
       </c>
       <c r="S23">
-        <v>0.03837919340030441</v>
+        <v>0.03290377034901484</v>
       </c>
       <c r="T23">
-        <v>0.03837919340030441</v>
+        <v>0.03290377034901483</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H24">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I24">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J24">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N24">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q24">
-        <v>1757.916003827781</v>
+        <v>1891.952027830974</v>
       </c>
       <c r="R24">
-        <v>1757.916003827781</v>
+        <v>17027.56825047877</v>
       </c>
       <c r="S24">
-        <v>0.06534132118378082</v>
+        <v>0.05887611777161147</v>
       </c>
       <c r="T24">
-        <v>0.06534132118378082</v>
+        <v>0.05887611777161147</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H25">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I25">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J25">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N25">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q25">
-        <v>1847.710210952807</v>
+        <v>2178.901529034462</v>
       </c>
       <c r="R25">
-        <v>1847.710210952807</v>
+        <v>19610.11376131016</v>
       </c>
       <c r="S25">
-        <v>0.06867895057871411</v>
+        <v>0.06780576946406498</v>
       </c>
       <c r="T25">
-        <v>0.06867895057871411</v>
+        <v>0.06780576946406497</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H26">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I26">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J26">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N26">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O26">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P26">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q26">
-        <v>2163.243772645174</v>
+        <v>2698.517541045952</v>
       </c>
       <c r="R26">
-        <v>2163.243772645174</v>
+        <v>24286.65786941358</v>
       </c>
       <c r="S26">
-        <v>0.08040725827595897</v>
+        <v>0.08397582719765184</v>
       </c>
       <c r="T26">
-        <v>0.08040725827595897</v>
+        <v>0.08397582719765184</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H27">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I27">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J27">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N27">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q27">
-        <v>335.9961312859262</v>
+        <v>341.8631672637797</v>
       </c>
       <c r="R27">
-        <v>335.9961312859262</v>
+        <v>3076.768505374017</v>
       </c>
       <c r="S27">
-        <v>0.01248889655879845</v>
+        <v>0.01063852349399875</v>
       </c>
       <c r="T27">
-        <v>0.01248889655879845</v>
+        <v>0.01063852349399875</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H28">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I28">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J28">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N28">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q28">
-        <v>703.1126442534428</v>
+        <v>847.3509585852015</v>
       </c>
       <c r="R28">
-        <v>703.1126442534428</v>
+        <v>7626.158627266815</v>
       </c>
       <c r="S28">
-        <v>0.02613453032824343</v>
+        <v>0.02636892167331804</v>
       </c>
       <c r="T28">
-        <v>0.02613453032824343</v>
+        <v>0.02636892167331804</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H29">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I29">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J29">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N29">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q29">
-        <v>918.4468577830385</v>
+        <v>953.3993397965399</v>
       </c>
       <c r="R29">
-        <v>918.4468577830385</v>
+        <v>8580.594058168859</v>
       </c>
       <c r="S29">
-        <v>0.03413845200451061</v>
+        <v>0.02966906717903977</v>
       </c>
       <c r="T29">
-        <v>0.03413845200451061</v>
+        <v>0.02966906717903977</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H30">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I30">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J30">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N30">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q30">
-        <v>1563.673589975963</v>
+        <v>1705.958047294673</v>
       </c>
       <c r="R30">
-        <v>1563.673589975963</v>
+        <v>15353.62242565206</v>
       </c>
       <c r="S30">
-        <v>0.05812137670215137</v>
+        <v>0.05308812561230688</v>
       </c>
       <c r="T30">
-        <v>0.05812137670215137</v>
+        <v>0.05308812561230688</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H31">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I31">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J31">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N31">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q31">
-        <v>1643.545910330577</v>
+        <v>1964.698122911969</v>
       </c>
       <c r="R31">
-        <v>1643.545910330577</v>
+        <v>17682.28310620772</v>
       </c>
       <c r="S31">
-        <v>0.06109021191761137</v>
+        <v>0.06113992129221326</v>
       </c>
       <c r="T31">
-        <v>0.06109021191761137</v>
+        <v>0.06113992129221325</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H32">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I32">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J32">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N32">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O32">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P32">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q32">
-        <v>358.7025826610076</v>
+        <v>460.13935546376</v>
       </c>
       <c r="R32">
-        <v>358.7025826610076</v>
+        <v>4141.254199173841</v>
       </c>
       <c r="S32">
-        <v>0.01333288997430435</v>
+        <v>0.01431918911532679</v>
       </c>
       <c r="T32">
-        <v>0.01333288997430435</v>
+        <v>0.01431918911532679</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H33">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I33">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J33">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N33">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q33">
-        <v>55.71386895014419</v>
+        <v>58.29300534418</v>
       </c>
       <c r="R33">
-        <v>55.71386895014419</v>
+        <v>524.63704809762</v>
       </c>
       <c r="S33">
-        <v>0.002070871303029043</v>
+        <v>0.001814034287032005</v>
       </c>
       <c r="T33">
-        <v>0.002070871303029043</v>
+        <v>0.001814034287032005</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H34">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I34">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J34">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N34">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q34">
-        <v>116.5880260859018</v>
+        <v>144.48656271616</v>
       </c>
       <c r="R34">
-        <v>116.5880260859018</v>
+        <v>1300.37906444544</v>
       </c>
       <c r="S34">
-        <v>0.004333549294775207</v>
+        <v>0.004496312674822193</v>
       </c>
       <c r="T34">
-        <v>0.004333549294775207</v>
+        <v>0.004496312674822194</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H35">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I35">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J35">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N35">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q35">
-        <v>152.2940983765407</v>
+        <v>162.5694667686</v>
       </c>
       <c r="R35">
-        <v>152.2940983765407</v>
+        <v>1463.1252009174</v>
       </c>
       <c r="S35">
-        <v>0.005660735538414693</v>
+        <v>0.005059038987637206</v>
       </c>
       <c r="T35">
-        <v>0.005660735538414693</v>
+        <v>0.005059038987637206</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H36">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I36">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J36">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N36">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q36">
-        <v>259.2836564495628</v>
+        <v>290.89247128856</v>
       </c>
       <c r="R36">
-        <v>259.2836564495628</v>
+        <v>2618.03224159704</v>
       </c>
       <c r="S36">
-        <v>0.009637512052274221</v>
+        <v>0.009052353942660563</v>
       </c>
       <c r="T36">
-        <v>0.009637512052274221</v>
+        <v>0.009052353942660563</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H37">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I37">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J37">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N37">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q37">
-        <v>272.5278446250333</v>
+        <v>335.0116922372</v>
       </c>
       <c r="R37">
-        <v>272.5278446250333</v>
+        <v>3015.1052301348</v>
       </c>
       <c r="S37">
-        <v>0.01012979538748904</v>
+        <v>0.01042531076733325</v>
       </c>
       <c r="T37">
-        <v>0.01012979538748904</v>
+        <v>0.01042531076733325</v>
       </c>
     </row>
   </sheetData>
